--- a/downloads/extra/Dow.xlsx
+++ b/downloads/extra/Dow.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Stock Symbol</t>
   </si>
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>Com Rate %</t>
   </si>
   <si>
     <t>Dividend Yield</t>
@@ -585,13 +588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,1054 +625,1147 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>0.0242</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>85.91</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.08</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>43440</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>43467</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>82.34999999999999</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>78.68000000000001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-3.560000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>0.007</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>119.78</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.84</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>43146</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>43165</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>106.44</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>98.9627</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-13.34</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>0.0496</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>47.58</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.36</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>43199</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>43221</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>48.73</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>47.03</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.149999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>0.0135</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>221.9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>43167</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>43179</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>198.85</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>187.48</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-23.05000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>0.0229</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>122.45</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.8</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>43146</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>43169</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>116.43</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>118.62</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-6.019999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>0.0211</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>136.59</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.88</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43167</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43189</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>125.36</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>124.75</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-11.23</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
         <v>0.0167</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>100.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.68</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>43077</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>43111</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>98.688</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>104.858</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-2.111999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>0.0367</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>78.27</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.87</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>43209</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>43235</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>91.68640000000001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>89.76000000000001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>13.41640000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>0.038</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>35.79</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.36</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>43132</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>43160</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>35.81</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>33.9</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.02000000000000313</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
         <v>0.012</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>66.83</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>43161</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>43192</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>52.85</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>54.69</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-13.98</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
         <v>0.0183</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>91.86</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.68</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>43236</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>43265</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>76.09</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>72</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-15.77</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
         <v>0.0342</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>56.2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.92</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>43173</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>43196</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>64.26000000000001</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>63.65</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>8.060000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
         <v>0.0247</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>163.34</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.04</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>43159</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>43174</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>160.28</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>153.23</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-3.060000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
         <v>0.0202</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>110.62</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.24</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>43195</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>43220</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>95.85299999999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>90.63</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-14.76700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>0.0259</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>129.63</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.36</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>43157</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>43172</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>135.259</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>131.38</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5.628999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
         <v>0.0235</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>51.1</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>43224</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>43252</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>38.72</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>36.29</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-12.38</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
         <v>0.0386</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>155.36</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>43139</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>43169</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>148.51</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>150.72</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-6.850000000000023</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>0.0238</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>172.86</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4.12</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>43166</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>43181</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>162.76</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>155.31</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-10.10000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
         <v>0.0119</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>252.94</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>43159</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>43188</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>236.032</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>226.25</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-16.90799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>0.037</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>12.97</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.48</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>43154</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>43215</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>23.6875</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>26.25</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>10.7175</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
         <v>0.0398</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>77.43000000000001</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3.08</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>43140</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>43168</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>81.59999999999999</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>80.81</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4.169999999999987</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
         <v>0.0235</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>64.73</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.52</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>43158</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>43174</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>82.87</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>80.79000000000001</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>18.14</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
         <v>0.0355</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>43.99</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.56</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>43173</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>43192</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>45.9114</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>45.09</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.921399999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
         <v>0.0311</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>42.43</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.32</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>43194</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>43215</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>33.365</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>32.4</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-9.064999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
         <v>0.0376</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>119.25</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4.48</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>43146</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>43171</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>117.09</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>109.04</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-2.159999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
         <v>0.0213</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>146.79</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3.12</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>43210</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>43239</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>127.15</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>112.13</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-19.63999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
         <v>0.0209</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>327.36</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>6.84</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>43139</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>43161</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>255.39</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>218.144</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-71.97000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
         <v>0.0146</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>172.44</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.52</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>43140</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>43146</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>156.641</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>152.61</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-15.79900000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
         <v>0.0153</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>91.59999999999999</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.4</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>43195</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>43230</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>90.34</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>84.13039999999999</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-1.259999999999991</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
         <v>0.0254</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>214.33</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>5.44</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>43146</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>43171</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>216.33</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>206.69</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2</v>
       </c>
     </row>
